--- a/biology/Médecine/Association_médicale_missionnaire/Association_médicale_missionnaire.xlsx
+++ b/biology/Médecine/Association_médicale_missionnaire/Association_médicale_missionnaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_missionnaire</t>
+          <t>Association_médicale_missionnaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Association Médicale Missionnaire (AMM) est une association loi de 1901 qui proposait depuis 1946, indépendamment de toute référence religieuse, des formations pour le personnel de santé envisageant de travailler dans les pays en développement, en milieu tropical démuni et avec des moyens rudimentaires. Elle s'est dissoute lors de l'Assemblée générale extraordinaire du 2 juin 2016.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_missionnaire</t>
+          <t>Association_médicale_missionnaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique et actualité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1946, de nombreux missionnaires revenaient malades des pays tropicaux et avaient de la peine à trouver des soins appropriés. Les autorités religieuses lyonnaises sous le parrainage des Œuvres pontificales missionnaires, aidées par des personnalités du monde médical ont alors fondé une association loi de 1901 qui acquit une maison et son parc à la Croix-Rousse et en assura la remise en état.
 Ainsi est née en 1948 la clinique du Saint-Rédempteur où furent soignés de nombreux missionnaires. Des recherches y furent également menées sur la lèpre en liaison avec l'Université catholique de Lyon. L'établissement était alors la troisième léproserie de France. En même temps, l'Association médicale missionnaire assurait une formation sanitaire à des religieux repartant dans les pays tropicaux.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_missionnaire</t>
+          <t>Association_médicale_missionnaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Ses activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En milieu tropical démuni, il est nécessaire aux professionnels de santé d’adapter leurs acquis aux conditions d’exercice d’un hôpital ou d’un dispensaire de brousse. Dans ce milieu, compte tenu du contexte environnant, l’infirmière, ou plus généralement l’agent de santé, est amené à tenir un rôle de médecin, établissant des diagnostics et instituant des traitements, ce qu'il ne fait pas dans les milieux hyper-médicalisés des pays développés. Le médecin lui-même doit apprendre à travailler sans le secours des examens radiologiques et autres techniques inexistantes dans ce milieu.
 Cette adaptation était le but des formations dispensées à l’AMM par des spécialistes des différentes disciplines ayant une expérience de terrain et qui avaient à cœur de transmettre ce savoir-faire pour utiliser au mieux les moyens disponibles. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_missionnaire</t>
+          <t>Association_médicale_missionnaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Les formations dispensées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces formations aux missions médicales étaient organisées en modules distincts. Elles recouvraient la pathologie tropicale (soins de proximité), la santé communautaire (médecine préventive), l'hygiène et le diagnostic biologique (laboratoire de brousse).
 Elles se déroulaient au siège lyonnais de l'association, à plein temps, sous forme de cours théoriques et travaux pratiques obligatoires durant 5 à 12 semaines selon les modules.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Association_m%C3%A9dicale_missionnaire</t>
+          <t>Association_médicale_missionnaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Devenir des stagiaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'issue de leur formation, les stagiaires trouvaient des postes dans des structures telles des dispensaires de brousse, des centres de santé, des hôpitaux ruraux, des maternités, des centres de renutrition et d'éducation nutritionnelle (CREN) des léproseries...
 Ils développaient souvent des projets dans les domaines de l'éducation sanitaire ou de l'assainissement.
